--- a/biology/Botanique/Arboriculture_fruitière/Arboriculture_fruitière.xlsx
+++ b/biology/Botanique/Arboriculture_fruitière/Arboriculture_fruitière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arboriculture_fruiti%C3%A8re</t>
+          <t>Arboriculture_fruitière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’arboriculture fruitière, ou fruiticulture, est une branche de l’arboriculture spécialisée dans la culture des arbres fruitiers afin d'en récolter les fruits.
 Elle se pratique de différentes manières :
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arboriculture_fruiti%C3%A8re</t>
+          <t>Arboriculture_fruitière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle remonte à la plus haute Antiquité connue : dans la Chine ancienne, pêcher et prunier étaient cultivés, en Mésopotamie, les pergolas de vignes et les arbres fruitiers formaient des clôtures du jardin. Au IIIe millénaire av. J.-C. Sargon d'Akkad (-2340 à -2284) rapportait de ses expéditions « des arbres, des vignes, des figues et des roses ». 
 Au Moyen Âge, les monastères possédaient un verger planté d’arbres et d’arbustes fruitiers sous lesquels les moines étaient ensevelis. Pommier, poirier commun, pêcher, vigne amenée par les Romains, le capitulaire De Villis attribué à Charlemagne donne une liste de 16 arbres fruitiers indispensables.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arboriculture_fruiti%C3%A8re</t>
+          <t>Arboriculture_fruitière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Classification des arbres fruitiers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>arbres à noyaux : abricotier, cerisier, pêcher, prunier.
 arbres à pépins : pommier, poirier commun, cognassier.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arboriculture_fruiti%C3%A8re</t>
+          <t>Arboriculture_fruitière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,15 +598,54 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multiplication
-greffage
+          <t>Multiplication</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>greffage
 marcottage
 bouturage
 drageonnage
 semis
-clonage
-Plantation
-D’octobre à avril, à l’automne dans les terres sèches et au printemps dans les terres lourdes. Les arbres à fruits à pépins sont plus difficiles sur la qualité du sol que les arbres à fruits à noyau. Les formes de plein vent sont achetées surtout sous forme de scions d’un an et de demi-tige et plantés tous les 5 à 7 mètres. Les gobelets peuvent être plantés à 4 mètres. Les cordons, les palmettes et les scions seront palissés le long d’un mur ou d’un espalier ou autre support. Les arbres basse-tige utilisés en arboriculture intensive et en haie fruitière dans les jardins des particuliers seront plantés avec tuteurs, en alignement et distants entre eux d'1,20 m minimum. 
+clonage</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Arboriculture_fruitière</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arboriculture_fruiti%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les techniques de l’arboriculture</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D’octobre à avril, à l’automne dans les terres sèches et au printemps dans les terres lourdes. Les arbres à fruits à pépins sont plus difficiles sur la qualité du sol que les arbres à fruits à noyau. Les formes de plein vent sont achetées surtout sous forme de scions d’un an et de demi-tige et plantés tous les 5 à 7 mètres. Les gobelets peuvent être plantés à 4 mètres. Les cordons, les palmettes et les scions seront palissés le long d’un mur ou d’un espalier ou autre support. Les arbres basse-tige utilisés en arboriculture intensive et en haie fruitière dans les jardins des particuliers seront plantés avec tuteurs, en alignement et distants entre eux d'1,20 m minimum. 
 Le sol idéal pour planter un arbre fruitier se compose de :
 1/3 de sable pour faciliter le drainage et permettre aux racines de se développer facilement,
 1/3 de limon pour permettre une bonne alimentation de la plante,
@@ -598,45 +653,117 @@
 des apports d'engrais réguliers si le sol n'est pas naturellement riche (ou si on souhaite augmenter la productivité du plant),
 du calcaire actif pour améliorer la capacité d'échange cationique.
 Lors de la plantation, il est très important que le point de greffe de l'arbre se trouve au moins à une dizaine de centimètres au-dessus du niveau du sol.
-Fertilisation
-Les arbres fruitiers ont besoin d'être fertilisés pour compenser la perte de sels minéraux correspondant à la récolte des fruits. Selon le type de sol, on fertilise en azote en deux ou trois apports annuels : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arboriculture_fruitière</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arboriculture_fruiti%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les techniques de l’arboriculture</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fertilisation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les arbres fruitiers ont besoin d'être fertilisés pour compenser la perte de sels minéraux correspondant à la récolte des fruits. Selon le type de sol, on fertilise en azote en deux ou trois apports annuels : 
 Deux apports en sols moyens ou lourds : 2/3 de l'azote avant la floraison et 1/3 au moment de la nouaison
 Trois apports en sols légers : 1/3 d'azote au stade B (réveil végétatif), 1/3 au stade EF (floraison), et 1/3 au stade GH (grossissement du fruit).
 L'alimentation en phosphore et potasse des arbres est elle apportée en automne et de préférence localisée près des racines. La localisation de ces engrais en profondeur a fait preuve d'une grande efficacité comparativement à l'épandage en surface.
 Lorsqu'un système d'irrigation existe, les engrais peuvent être incorporés dans l'eau d'irrigation afin d'être mieux diffusés par l'eau d'arrosage.
-Taille
-La taille est une pratique nécessaire pour former les arbres ou améliorer leur fructification.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Arboriculture_fruitière</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arboriculture_fruiti%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les techniques de l’arboriculture</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille est une pratique nécessaire pour former les arbres ou améliorer leur fructification.
 Il existe une taille de formation suivie d'une taille d'entretien.
 La taille d'entretien des arbres à noyaux qui portent leurs fruits sur des rameaux de l'année et celle des arbres à pépins qui portent leurs fruits sur des rameaux anciens sont de ce fait très différentes.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Arboriculture_fruiti%C3%A8re</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Arboriculture_fruitière</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Arboriculture_fruiti%C3%A8re</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Risques liés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>L'arboriculture fruitière est dépendante d'éléments plus ou moins contrôlables :
 le climat : même si on plante des espèces adaptées au climat, l'arboriculteur est toujours exposé à des risques de type "gelées tardives", grêle, sécheresse ou très grand froid.
